--- a/uploads/correct_file.xlsx
+++ b/uploads/correct_file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E05763-2070-41E6-AF14-F942D37A82E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D22E64F-9EBC-4D27-94DC-1DAEE839743A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10603" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="6917" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="1" r:id="rId1"/>
@@ -21391,7 +21391,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
